--- a/lecture/xlsx/result.xlsx
+++ b/lecture/xlsx/result.xlsx
@@ -443,7 +443,7 @@
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=72363</v>
       </c>
       <c r="C6">
-        <v>8.8</v>
+        <v>8.80</v>
       </c>
     </row>
     <row r="7">

--- a/lecture/xlsx/result.xlsx
+++ b/lecture/xlsx/result.xlsx
@@ -443,7 +443,7 @@
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=72363</v>
       </c>
       <c r="C6">
-        <v>8.80</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="7">
